--- a/biology/Botanique/Eriocaulon_parvulum/Eriocaulon_parvulum.xlsx
+++ b/biology/Botanique/Eriocaulon_parvulum/Eriocaulon_parvulum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eriocaulon parvulum S.M. Phillips est une espèce du genre Eriocaulon, de la famille des Eriocaulaceae[2]. Plante à fleur, du groupe des monocotylédones, elle est native du Cameroun.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eriocaulon parvulum S.M. Phillips est une espèce du genre Eriocaulon, de la famille des Eriocaulaceae. Plante à fleur, du groupe des monocotylédones, elle est native du Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est une herbe annuelle[3],[4], minuscule, endémique au Mont Oku et à la crête d’Ijim[5]. Elle est connue pour croître entre les blocs de basalte à l’exemple d’autres espèces comme Utricularia scandens, Loudetia simplex et Scleria interrupta. À des altitudes de 1 700 à 2 500 m[6],[4], elle est évaluée suivant les critères de l’UICN comme une espèce vulnérable[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est une herbe annuelle minuscule, endémique au Mont Oku et à la crête d’Ijim. Elle est connue pour croître entre les blocs de basalte à l’exemple d’autres espèces comme Utricularia scandens, Loudetia simplex et Scleria interrupta. À des altitudes de 1 700 à 2 500 m elle est évaluée suivant les critères de l’UICN comme une espèce vulnérable.
 </t>
         </is>
       </c>
